--- a/oresat-camera-hardware/star-tracker-camera-board/star-tracker-camera-board-digikey-bom.xlsx
+++ b/oresat-camera-hardware/star-tracker-camera-board/star-tracker-camera-board-digikey-bom.xlsx
@@ -180,7 +180,7 @@
   <cols>
     <col min="1" max="1" width="24" customWidth="1"/>
     <col min="2" max="2" width="48" customWidth="1"/>
-    <col min="3" max="3" width="20" customWidth="1"/>
+    <col min="3" max="3" width="24" customWidth="1"/>
     <col min="4" max="4" width="25" customWidth="1"/>
     <col min="5" max="5" width="20" customWidth="1"/>
     <col min="6" max="6" width="13" customWidth="1"/>
@@ -433,22 +433,22 @@
     <row r="4">
       <c t="inlineStr" r="A4">
         <is>
-          <t>TPS71928-28DRVR</t>
+          <t>KC2520B27.0000C10E00</t>
         </is>
       </c>
       <c t="inlineStr" r="B4">
         <is>
-          <t>Texas Instruments</t>
+          <t>Kyocera International Inc. Electronic Components</t>
         </is>
       </c>
       <c t="inlineStr" r="C4">
         <is>
-          <t>296-21660-1-ND</t>
+          <t>478-4781-1-ND</t>
         </is>
       </c>
       <c t="inlineStr" r="D4">
         <is>
-          <t>U3, U4</t>
+          <t>X1</t>
         </is>
       </c>
       <c t="inlineStr" r="E4">
@@ -467,27 +467,27 @@
         </is>
       </c>
       <c t="n" r="H4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c t="n" r="I4">
-        <v>1.67000</v>
+        <v>1.41000</v>
       </c>
       <c t="inlineStr" r="J4">
         <is>
-          <t>$3.34</t>
+          <t>$1.41</t>
         </is>
       </c>
       <c t="n" r="K4">
-        <v>0</v>
+        <v>14815</v>
       </c>
       <c t="inlineStr" r="L4">
         <is>
-          <t>6 Weeks</t>
+          <t>22 Weeks</t>
         </is>
       </c>
       <c t="inlineStr" r="M4">
         <is>
-          <t>IC REG LINEAR 2.8V 200MA 6SON</t>
+          <t>XTAL OSC XO 27.0000MHZ CMOS SMD</t>
         </is>
       </c>
       <c t="inlineStr" r="N4">
@@ -509,22 +509,22 @@
     <row r="5">
       <c t="inlineStr" r="A5">
         <is>
-          <t>KC2520B27.0000C10E00</t>
+          <t>GRT188C81A106ME13D</t>
         </is>
       </c>
       <c t="inlineStr" r="B5">
         <is>
-          <t>Kyocera International Inc. Electronic Components</t>
+          <t>Murata Electronics</t>
         </is>
       </c>
       <c t="inlineStr" r="C5">
         <is>
-          <t>478-4781-1-ND</t>
+          <t>490-12283-1-ND</t>
         </is>
       </c>
       <c t="inlineStr" r="D5">
         <is>
-          <t>X1</t>
+          <t>C2, C4, C8, C12, C16</t>
         </is>
       </c>
       <c t="inlineStr" r="E5">
@@ -543,27 +543,27 @@
         </is>
       </c>
       <c t="n" r="H5">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c t="n" r="I5">
-        <v>1.41000</v>
+        <v>0.86000</v>
       </c>
       <c t="inlineStr" r="J5">
         <is>
-          <t>$1.41</t>
+          <t>$4.30</t>
         </is>
       </c>
       <c t="n" r="K5">
-        <v>14815</v>
+        <v>75224</v>
       </c>
       <c t="inlineStr" r="L5">
         <is>
-          <t>22 Weeks</t>
+          <t>19 Weeks</t>
         </is>
       </c>
       <c t="inlineStr" r="M5">
         <is>
-          <t>XTAL OSC XO 27.0000MHZ CMOS SMD</t>
+          <t>CAP CER 10UF 10V X6S 0603</t>
         </is>
       </c>
       <c t="inlineStr" r="N5">
@@ -578,29 +578,29 @@
       </c>
       <c t="inlineStr" r="P5">
         <is>
-          <t>REACH Unaffected</t>
+          <t>Not Available</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c t="inlineStr" r="A6">
         <is>
-          <t>GRT188C81A106ME13D</t>
+          <t>CGA3E1X8L0J225K080AC</t>
         </is>
       </c>
       <c t="inlineStr" r="B6">
         <is>
-          <t>Murata Electronics</t>
+          <t>TDK Corporation</t>
         </is>
       </c>
       <c t="inlineStr" r="C6">
         <is>
-          <t>490-12283-1-ND</t>
+          <t>445-175262-1-ND</t>
         </is>
       </c>
       <c t="inlineStr" r="D6">
         <is>
-          <t>C2, C4, C8, C12, C16</t>
+          <t>C7, C11, C15, C18, C19</t>
         </is>
       </c>
       <c t="inlineStr" r="E6">
@@ -622,24 +622,24 @@
         <v>5</v>
       </c>
       <c t="n" r="I6">
-        <v>0.86000</v>
+        <v>0.37000</v>
       </c>
       <c t="inlineStr" r="J6">
         <is>
-          <t>$4.30</t>
+          <t>$1.85</t>
         </is>
       </c>
       <c t="n" r="K6">
-        <v>75224</v>
+        <v>34795</v>
       </c>
       <c t="inlineStr" r="L6">
         <is>
-          <t>19 Weeks</t>
+          <t>12 Weeks</t>
         </is>
       </c>
       <c t="inlineStr" r="M6">
         <is>
-          <t>CAP CER 10UF 10V X6S 0603</t>
+          <t>CAP CER X8L 6.3V 2.2UF 10% 0.80M</t>
         </is>
       </c>
       <c t="inlineStr" r="N6">
@@ -661,7 +661,7 @@
     <row r="7">
       <c t="inlineStr" r="A7">
         <is>
-          <t>CGA3E1X8L0J225K080AC</t>
+          <t>CGA3E1X8L1C105K080AC</t>
         </is>
       </c>
       <c t="inlineStr" r="B7">
@@ -671,12 +671,12 @@
       </c>
       <c t="inlineStr" r="C7">
         <is>
-          <t>445-175262-1-ND</t>
+          <t>445-175260-1-ND</t>
         </is>
       </c>
       <c t="inlineStr" r="D7">
         <is>
-          <t>C7, C11, C15, C18, C19</t>
+          <t>C6, C10, C14</t>
         </is>
       </c>
       <c t="inlineStr" r="E7">
@@ -695,18 +695,18 @@
         </is>
       </c>
       <c t="n" r="H7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c t="n" r="I7">
         <v>0.37000</v>
       </c>
       <c t="inlineStr" r="J7">
         <is>
-          <t>$1.85</t>
+          <t>$1.11</t>
         </is>
       </c>
       <c t="n" r="K7">
-        <v>34795</v>
+        <v>12315</v>
       </c>
       <c t="inlineStr" r="L7">
         <is>
@@ -715,7 +715,7 @@
       </c>
       <c t="inlineStr" r="M7">
         <is>
-          <t>CAP CER X8L 6.3V 2.2UF 10% 0.80M</t>
+          <t>CAP CER X8L 16V 1.0UF 10% 0.80MM</t>
         </is>
       </c>
       <c t="inlineStr" r="N7">
@@ -737,7 +737,7 @@
     <row r="8">
       <c t="inlineStr" r="A8">
         <is>
-          <t>CGA3E1X8L1C105K080AC</t>
+          <t>CGA2B2X8R1E103K050BA</t>
         </is>
       </c>
       <c t="inlineStr" r="B8">
@@ -747,12 +747,12 @@
       </c>
       <c t="inlineStr" r="C8">
         <is>
-          <t>445-175260-1-ND</t>
+          <t>445-5873-1-ND</t>
         </is>
       </c>
       <c t="inlineStr" r="D8">
         <is>
-          <t>C6, C10, C14</t>
+          <t>C1</t>
         </is>
       </c>
       <c t="inlineStr" r="E8">
@@ -771,27 +771,27 @@
         </is>
       </c>
       <c t="n" r="H8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c t="n" r="I8">
-        <v>0.37000</v>
+        <v>0.18000</v>
       </c>
       <c t="inlineStr" r="J8">
         <is>
-          <t>$1.11</t>
+          <t>$0.18</t>
         </is>
       </c>
       <c t="n" r="K8">
-        <v>12315</v>
+        <v>57392</v>
       </c>
       <c t="inlineStr" r="L8">
         <is>
-          <t>12 Weeks</t>
+          <t>20 Weeks</t>
         </is>
       </c>
       <c t="inlineStr" r="M8">
         <is>
-          <t>CAP CER X8L 16V 1.0UF 10% 0.80MM</t>
+          <t>CAP CER 10000PF 25V X8R 0402</t>
         </is>
       </c>
       <c t="inlineStr" r="N8">
@@ -806,14 +806,14 @@
       </c>
       <c t="inlineStr" r="P8">
         <is>
-          <t>Not Available</t>
+          <t>REACH Unaffected</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c t="inlineStr" r="A9">
         <is>
-          <t>CGA2B2X8R1E103K050BA</t>
+          <t>CGA2B3X7R1E104K050BB</t>
         </is>
       </c>
       <c t="inlineStr" r="B9">
@@ -823,12 +823,12 @@
       </c>
       <c t="inlineStr" r="C9">
         <is>
-          <t>445-5873-1-ND</t>
+          <t>445-6902-1-ND</t>
         </is>
       </c>
       <c t="inlineStr" r="D9">
         <is>
-          <t>C1</t>
+          <t>C3, C5, C9, C13, C17</t>
         </is>
       </c>
       <c t="inlineStr" r="E9">
@@ -847,18 +847,18 @@
         </is>
       </c>
       <c t="n" r="H9">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c t="n" r="I9">
-        <v>0.18000</v>
+        <v>0.14000</v>
       </c>
       <c t="inlineStr" r="J9">
         <is>
-          <t>$0.18</t>
+          <t>$0.70</t>
         </is>
       </c>
       <c t="n" r="K9">
-        <v>57392</v>
+        <v>1530172</v>
       </c>
       <c t="inlineStr" r="L9">
         <is>
@@ -867,7 +867,7 @@
       </c>
       <c t="inlineStr" r="M9">
         <is>
-          <t>CAP CER 10000PF 25V X8R 0402</t>
+          <t>CAP CER 0.1UF 25V X7R 0402</t>
         </is>
       </c>
       <c t="inlineStr" r="N9">
@@ -889,22 +889,22 @@
     <row r="10">
       <c t="inlineStr" r="A10">
         <is>
-          <t>CGA2B3X7R1E104K050BB</t>
+          <t>ERJ-PA2F4701X</t>
         </is>
       </c>
       <c t="inlineStr" r="B10">
         <is>
-          <t>TDK Corporation</t>
+          <t>Panasonic Electronic Components</t>
         </is>
       </c>
       <c t="inlineStr" r="C10">
         <is>
-          <t>445-6902-1-ND</t>
+          <t>P17228CT-ND</t>
         </is>
       </c>
       <c t="inlineStr" r="D10">
         <is>
-          <t>C3, C5, C9, C13, C17</t>
+          <t>R7, R8</t>
         </is>
       </c>
       <c t="inlineStr" r="E10">
@@ -923,27 +923,27 @@
         </is>
       </c>
       <c t="n" r="H10">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c t="n" r="I10">
-        <v>0.14000</v>
+        <v>0.21000</v>
       </c>
       <c t="inlineStr" r="J10">
         <is>
-          <t>$0.70</t>
+          <t>$0.42</t>
         </is>
       </c>
       <c t="n" r="K10">
-        <v>1530172</v>
+        <v>10386</v>
       </c>
       <c t="inlineStr" r="L10">
         <is>
-          <t>20 Weeks</t>
+          <t>13 Weeks</t>
         </is>
       </c>
       <c t="inlineStr" r="M10">
         <is>
-          <t>CAP CER 0.1UF 25V X7R 0402</t>
+          <t>RES SMD 4.7K OHM 1% 1/5W 0402</t>
         </is>
       </c>
       <c t="inlineStr" r="N10">
@@ -958,14 +958,14 @@
       </c>
       <c t="inlineStr" r="P10">
         <is>
-          <t>REACH Unaffected</t>
+          <t>Not Available</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c t="inlineStr" r="A11">
         <is>
-          <t>ERJ-PA2F4701X</t>
+          <t>ERJ-PA2F1000X</t>
         </is>
       </c>
       <c t="inlineStr" r="B11">
@@ -975,12 +975,12 @@
       </c>
       <c t="inlineStr" r="C11">
         <is>
-          <t>P17228CT-ND</t>
+          <t>P17218CT-ND</t>
         </is>
       </c>
       <c t="inlineStr" r="D11">
         <is>
-          <t>R7, R8</t>
+          <t>R2</t>
         </is>
       </c>
       <c t="inlineStr" r="E11">
@@ -999,18 +999,18 @@
         </is>
       </c>
       <c t="n" r="H11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c t="n" r="I11">
         <v>0.21000</v>
       </c>
       <c t="inlineStr" r="J11">
         <is>
-          <t>$0.42</t>
+          <t>$0.21</t>
         </is>
       </c>
       <c t="n" r="K11">
-        <v>10386</v>
+        <v>27293</v>
       </c>
       <c t="inlineStr" r="L11">
         <is>
@@ -1019,7 +1019,7 @@
       </c>
       <c t="inlineStr" r="M11">
         <is>
-          <t>RES SMD 4.7K OHM 1% 1/5W 0402</t>
+          <t>RES SMD 100 OHM 1% 1/5W 0402</t>
         </is>
       </c>
       <c t="inlineStr" r="N11">
@@ -1041,22 +1041,22 @@
     <row r="12">
       <c t="inlineStr" r="A12">
         <is>
-          <t>ERJ-PA2F1002X</t>
+          <t>TPS71928-28DRVT</t>
         </is>
       </c>
       <c t="inlineStr" r="B12">
         <is>
-          <t>Panasonic Electronic Components</t>
+          <t>Texas Instruments</t>
         </is>
       </c>
       <c t="inlineStr" r="C12">
         <is>
-          <t>P17230CT-ND</t>
+          <t>296-TPS71928-28DRVTCT-ND</t>
         </is>
       </c>
       <c t="inlineStr" r="D12">
         <is>
-          <t>R4, R5, R9, R10, R11, R12</t>
+          <t>U3, U4</t>
         </is>
       </c>
       <c t="inlineStr" r="E12">
@@ -1075,27 +1075,27 @@
         </is>
       </c>
       <c t="n" r="H12">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c t="n" r="I12">
-        <v>0.21000</v>
+        <v>1.92000</v>
       </c>
       <c t="inlineStr" r="J12">
         <is>
-          <t>$1.26</t>
+          <t>$3.84</t>
         </is>
       </c>
       <c t="n" r="K12">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c t="inlineStr" r="L12">
         <is>
-          <t>13 Weeks</t>
+          <t>6 Weeks</t>
         </is>
       </c>
       <c t="inlineStr" r="M12">
         <is>
-          <t>RES SMD 10K OHM 1% 1/5W 0402</t>
+          <t>IC REG LINEAR 2.8V 200MA 6SON</t>
         </is>
       </c>
       <c t="inlineStr" r="N12">
@@ -1110,14 +1110,14 @@
       </c>
       <c t="inlineStr" r="P12">
         <is>
-          <t>Not Available</t>
+          <t>REACH Unaffected</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c t="inlineStr" r="A13">
         <is>
-          <t>ERJ-PA2F1000X</t>
+          <t>ERJ-2RKF1002X</t>
         </is>
       </c>
       <c t="inlineStr" r="B13">
@@ -1127,12 +1127,12 @@
       </c>
       <c t="inlineStr" r="C13">
         <is>
-          <t>P17218CT-ND</t>
+          <t>P10.0KLCT-ND</t>
         </is>
       </c>
       <c t="inlineStr" r="D13">
         <is>
-          <t>R2</t>
+          <t>R4, R5, R9, R10, R11, R12</t>
         </is>
       </c>
       <c t="inlineStr" r="E13">
@@ -1151,27 +1151,27 @@
         </is>
       </c>
       <c t="n" r="H13">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c t="n" r="I13">
-        <v>0.21000</v>
+        <v>0.10000</v>
       </c>
       <c t="inlineStr" r="J13">
         <is>
-          <t>$0.21</t>
+          <t>$0.60</t>
         </is>
       </c>
       <c t="n" r="K13">
-        <v>27293</v>
+        <v>2726709</v>
       </c>
       <c t="inlineStr" r="L13">
         <is>
-          <t>13 Weeks</t>
+          <t>17 Weeks</t>
         </is>
       </c>
       <c t="inlineStr" r="M13">
         <is>
-          <t>RES SMD 100 OHM 1% 1/5W 0402</t>
+          <t>RES SMD 10K OHM 1% 1/10W 0402</t>
         </is>
       </c>
       <c t="inlineStr" r="N13">
@@ -1186,7 +1186,7 @@
       </c>
       <c t="inlineStr" r="P13">
         <is>
-          <t>Not Available</t>
+          <t>REACH Unaffected</t>
         </is>
       </c>
     </row>
